--- a/data/pca/factorExposure/factorExposure_2012-06-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-12.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0163741506560136</v>
+        <v>0.02167666778723753</v>
       </c>
       <c r="C2">
-        <v>0.02935363261545933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02423388158215706</v>
+      </c>
+      <c r="D2">
+        <v>-0.001344400827036358</v>
+      </c>
+      <c r="E2">
+        <v>-0.0276526512641257</v>
+      </c>
+      <c r="F2">
+        <v>0.004145908703843442</v>
+      </c>
+      <c r="G2">
+        <v>-0.004383760056113933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06806348027213173</v>
+        <v>0.07849760118854218</v>
       </c>
       <c r="C4">
-        <v>0.0633778580402197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04105343202680865</v>
+      </c>
+      <c r="D4">
+        <v>0.06988604756515608</v>
+      </c>
+      <c r="E4">
+        <v>-0.001232892619938357</v>
+      </c>
+      <c r="F4">
+        <v>0.0316088678554443</v>
+      </c>
+      <c r="G4">
+        <v>0.006977030517441338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09784732685120801</v>
+        <v>0.1154125776061865</v>
       </c>
       <c r="C6">
-        <v>0.0692513606454719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04195789064646183</v>
+      </c>
+      <c r="D6">
+        <v>0.01102984356984506</v>
+      </c>
+      <c r="E6">
+        <v>0.003581594735789301</v>
+      </c>
+      <c r="F6">
+        <v>0.04937273937972373</v>
+      </c>
+      <c r="G6">
+        <v>-0.01325299765969291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04541873025407376</v>
+        <v>0.05748579116410643</v>
       </c>
       <c r="C7">
-        <v>0.03315877860513351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02346700906271691</v>
+      </c>
+      <c r="D7">
+        <v>0.03662113858166009</v>
+      </c>
+      <c r="E7">
+        <v>-0.019565126913393</v>
+      </c>
+      <c r="F7">
+        <v>0.03420986304110359</v>
+      </c>
+      <c r="G7">
+        <v>0.04296710897628708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0332352725728903</v>
+        <v>0.03678364024252703</v>
       </c>
       <c r="C8">
-        <v>0.02778317570619558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01597871994334281</v>
+      </c>
+      <c r="D8">
+        <v>0.03707932254308802</v>
+      </c>
+      <c r="E8">
+        <v>-0.006169671369116317</v>
+      </c>
+      <c r="F8">
+        <v>0.05546307125368834</v>
+      </c>
+      <c r="G8">
+        <v>-0.0319768768456565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06266037928960932</v>
+        <v>0.07258857426561836</v>
       </c>
       <c r="C9">
-        <v>0.04847150282564548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02833192068977105</v>
+      </c>
+      <c r="D9">
+        <v>0.06810087031606966</v>
+      </c>
+      <c r="E9">
+        <v>-0.0160398556445604</v>
+      </c>
+      <c r="F9">
+        <v>0.03900397200606217</v>
+      </c>
+      <c r="G9">
+        <v>0.0008794308700185528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02671630501551332</v>
+        <v>0.04008797470101906</v>
       </c>
       <c r="C10">
-        <v>0.0386150258697617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04152737280788224</v>
+      </c>
+      <c r="D10">
+        <v>-0.1818848083826262</v>
+      </c>
+      <c r="E10">
+        <v>-0.04773512916181903</v>
+      </c>
+      <c r="F10">
+        <v>0.03470272882701747</v>
+      </c>
+      <c r="G10">
+        <v>0.04541474741097547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06699903492547089</v>
+        <v>0.07583437500699483</v>
       </c>
       <c r="C11">
-        <v>0.05214885006776807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02876824043211148</v>
+      </c>
+      <c r="D11">
+        <v>0.06743720584408798</v>
+      </c>
+      <c r="E11">
+        <v>0.01027670900402943</v>
+      </c>
+      <c r="F11">
+        <v>0.03477136362321012</v>
+      </c>
+      <c r="G11">
+        <v>0.01596991759107502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05188338587096696</v>
+        <v>0.06349054868527992</v>
       </c>
       <c r="C12">
-        <v>0.05246091555639932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03482757599450495</v>
+      </c>
+      <c r="D12">
+        <v>0.05150196490116355</v>
+      </c>
+      <c r="E12">
+        <v>-0.009865256384190274</v>
+      </c>
+      <c r="F12">
+        <v>0.02933564607127088</v>
+      </c>
+      <c r="G12">
+        <v>0.01802870594837386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05784697374584417</v>
+        <v>0.06403762866604269</v>
       </c>
       <c r="C13">
-        <v>0.05334382225696142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03072903634366054</v>
+      </c>
+      <c r="D13">
+        <v>0.04923966355488951</v>
+      </c>
+      <c r="E13">
+        <v>-0.005393838841001479</v>
+      </c>
+      <c r="F13">
+        <v>0.01705248714668733</v>
+      </c>
+      <c r="G13">
+        <v>-7.99296232519518e-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0310128945775663</v>
+        <v>0.03914778856491469</v>
       </c>
       <c r="C14">
-        <v>0.02809413110999777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02067173274170723</v>
+      </c>
+      <c r="D14">
+        <v>0.00962042097764</v>
+      </c>
+      <c r="E14">
+        <v>-0.01391001155602481</v>
+      </c>
+      <c r="F14">
+        <v>0.01375434078169617</v>
+      </c>
+      <c r="G14">
+        <v>-0.0005542023869614301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03962262458749305</v>
+        <v>0.04126940436054751</v>
       </c>
       <c r="C15">
-        <v>0.01326541025210569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001951768439689043</v>
+      </c>
+      <c r="D15">
+        <v>0.01619881242488442</v>
+      </c>
+      <c r="E15">
+        <v>-0.03838776457230449</v>
+      </c>
+      <c r="F15">
+        <v>-0.0004957714154148142</v>
+      </c>
+      <c r="G15">
+        <v>-0.02031587878964292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05654460448845942</v>
+        <v>0.06415654565059285</v>
       </c>
       <c r="C16">
-        <v>0.04639648209244471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02720185502355668</v>
+      </c>
+      <c r="D16">
+        <v>0.06034810799143988</v>
+      </c>
+      <c r="E16">
+        <v>-0.0008181605300449351</v>
+      </c>
+      <c r="F16">
+        <v>0.03110371304348743</v>
+      </c>
+      <c r="G16">
+        <v>0.005708477633895616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06084425854248812</v>
+        <v>0.06196340539323823</v>
       </c>
       <c r="C20">
-        <v>0.03850557011224185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01626167971086101</v>
+      </c>
+      <c r="D20">
+        <v>0.04872196634590021</v>
+      </c>
+      <c r="E20">
+        <v>-0.01548988938815133</v>
+      </c>
+      <c r="F20">
+        <v>0.02509098901408073</v>
+      </c>
+      <c r="G20">
+        <v>0.01554312345513789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0255981530021334</v>
+        <v>0.02414121894110358</v>
       </c>
       <c r="C21">
-        <v>0.001027300161743402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.008657796196170398</v>
+      </c>
+      <c r="D21">
+        <v>0.03027869090181177</v>
+      </c>
+      <c r="E21">
+        <v>-0.08736349251908462</v>
+      </c>
+      <c r="F21">
+        <v>-0.002980244684775047</v>
+      </c>
+      <c r="G21">
+        <v>-0.01272744487733803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0670395830634755</v>
+        <v>0.06457484363090851</v>
       </c>
       <c r="C22">
-        <v>0.07261457157953166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04228185668027669</v>
+      </c>
+      <c r="D22">
+        <v>0.1055859913504815</v>
+      </c>
+      <c r="E22">
+        <v>-0.6088395290503601</v>
+      </c>
+      <c r="F22">
+        <v>-0.1435059429848841</v>
+      </c>
+      <c r="G22">
+        <v>0.04700820303108274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06819421248876412</v>
+        <v>0.06513116517218195</v>
       </c>
       <c r="C23">
-        <v>0.07240777030649266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04152457633155207</v>
+      </c>
+      <c r="D23">
+        <v>0.1064020268163177</v>
+      </c>
+      <c r="E23">
+        <v>-0.6078189413075675</v>
+      </c>
+      <c r="F23">
+        <v>-0.1430333519537094</v>
+      </c>
+      <c r="G23">
+        <v>0.04497137796376382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06478339560364077</v>
+        <v>0.07557339720036876</v>
       </c>
       <c r="C24">
-        <v>0.05446479043537573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03205160178111222</v>
+      </c>
+      <c r="D24">
+        <v>0.06489505883199594</v>
+      </c>
+      <c r="E24">
+        <v>-0.008103671615276009</v>
+      </c>
+      <c r="F24">
+        <v>0.04234160142247737</v>
+      </c>
+      <c r="G24">
+        <v>0.005550185272013258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06439656886475639</v>
+        <v>0.07369230041535396</v>
       </c>
       <c r="C25">
-        <v>0.05876657878110959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03629706042978358</v>
+      </c>
+      <c r="D25">
+        <v>0.06311221729348014</v>
+      </c>
+      <c r="E25">
+        <v>-0.01081846561678444</v>
+      </c>
+      <c r="F25">
+        <v>0.03792839209175152</v>
+      </c>
+      <c r="G25">
+        <v>-0.005608026626432424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03801788929129554</v>
+        <v>0.0416247733780979</v>
       </c>
       <c r="C26">
-        <v>0.01490242628585647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.004996823667699896</v>
+      </c>
+      <c r="D26">
+        <v>0.02272865349711732</v>
+      </c>
+      <c r="E26">
+        <v>-0.03506057973186458</v>
+      </c>
+      <c r="F26">
+        <v>0.02077753187042816</v>
+      </c>
+      <c r="G26">
+        <v>0.01577566286112277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0504941754235632</v>
+        <v>0.07341990489426291</v>
       </c>
       <c r="C28">
-        <v>0.07479748848936611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07607816982345474</v>
+      </c>
+      <c r="D28">
+        <v>-0.3237215431940988</v>
+      </c>
+      <c r="E28">
+        <v>-0.04150282696181303</v>
+      </c>
+      <c r="F28">
+        <v>0.04287049320294625</v>
+      </c>
+      <c r="G28">
+        <v>-0.02560195545123943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03530893033090549</v>
+        <v>0.04416573395242505</v>
       </c>
       <c r="C29">
-        <v>0.03177170408029026</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02388337046132426</v>
+      </c>
+      <c r="D29">
+        <v>0.01020543575267719</v>
+      </c>
+      <c r="E29">
+        <v>-0.03762470738380668</v>
+      </c>
+      <c r="F29">
+        <v>0.01074950994222463</v>
+      </c>
+      <c r="G29">
+        <v>0.01789854611321502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1153720715227963</v>
+        <v>0.1336599583198631</v>
       </c>
       <c r="C30">
-        <v>0.1035250779706758</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06467744108049814</v>
+      </c>
+      <c r="D30">
+        <v>0.09500825016741714</v>
+      </c>
+      <c r="E30">
+        <v>-0.04444542179254902</v>
+      </c>
+      <c r="F30">
+        <v>0.02749821362882007</v>
+      </c>
+      <c r="G30">
+        <v>-0.01341507451760989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03800606513014054</v>
+        <v>0.04439163652259297</v>
       </c>
       <c r="C31">
-        <v>0.02310416458436932</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01287455827528418</v>
+      </c>
+      <c r="D31">
+        <v>0.02872601060512704</v>
+      </c>
+      <c r="E31">
+        <v>-0.0197837993908446</v>
+      </c>
+      <c r="F31">
+        <v>0.01244397008861422</v>
+      </c>
+      <c r="G31">
+        <v>0.0235017138575602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03289811506823247</v>
+        <v>0.0326671180096786</v>
       </c>
       <c r="C32">
-        <v>0.0224178907199078</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01192908438861917</v>
+      </c>
+      <c r="D32">
+        <v>0.01378006179138138</v>
+      </c>
+      <c r="E32">
+        <v>-0.06383835308280815</v>
+      </c>
+      <c r="F32">
+        <v>-0.003633015411900881</v>
+      </c>
+      <c r="G32">
+        <v>-0.02988341392856878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07383760180259796</v>
+        <v>0.08818811121657698</v>
       </c>
       <c r="C33">
-        <v>0.0545307492693585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03257835234689777</v>
+      </c>
+      <c r="D33">
+        <v>0.06131573707974369</v>
+      </c>
+      <c r="E33">
+        <v>-0.01197239685755074</v>
+      </c>
+      <c r="F33">
+        <v>0.008143610721710512</v>
+      </c>
+      <c r="G33">
+        <v>0.01182846842406647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05053542124740221</v>
+        <v>0.05793356195100483</v>
       </c>
       <c r="C34">
-        <v>0.0343225834042836</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01713950212063686</v>
+      </c>
+      <c r="D34">
+        <v>0.06027787409444534</v>
+      </c>
+      <c r="E34">
+        <v>-0.00115098295835021</v>
+      </c>
+      <c r="F34">
+        <v>0.02493643762569097</v>
+      </c>
+      <c r="G34">
+        <v>0.0005353775761453916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03603623691462572</v>
+        <v>0.04016901962255854</v>
       </c>
       <c r="C35">
-        <v>0.0122970651516328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.003706139725638704</v>
+      </c>
+      <c r="D35">
+        <v>0.01215275623412752</v>
+      </c>
+      <c r="E35">
+        <v>-0.02229875290606893</v>
+      </c>
+      <c r="F35">
+        <v>-0.00216501632194398</v>
+      </c>
+      <c r="G35">
+        <v>0.01324144352693371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01804015919031397</v>
+        <v>0.02503693132729562</v>
       </c>
       <c r="C36">
-        <v>0.01700357295640012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01211245532894324</v>
+      </c>
+      <c r="D36">
+        <v>0.0203124881036444</v>
+      </c>
+      <c r="E36">
+        <v>-0.03576848973205724</v>
+      </c>
+      <c r="F36">
+        <v>0.01923532443440944</v>
+      </c>
+      <c r="G36">
+        <v>0.01376452916153532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03787850642989394</v>
+        <v>0.04024303705066111</v>
       </c>
       <c r="C38">
-        <v>0.01093486797706628</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.001769038522366519</v>
+      </c>
+      <c r="D38">
+        <v>0.01292946961194991</v>
+      </c>
+      <c r="E38">
+        <v>-0.05944439252401627</v>
+      </c>
+      <c r="F38">
+        <v>-0.02307072939998715</v>
+      </c>
+      <c r="G38">
+        <v>-0.01401562444146739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08704607889703177</v>
+        <v>0.1025607334471216</v>
       </c>
       <c r="C39">
-        <v>0.08676403698622247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05560144338604341</v>
+      </c>
+      <c r="D39">
+        <v>0.08514615589863149</v>
+      </c>
+      <c r="E39">
+        <v>0.01147898615414927</v>
+      </c>
+      <c r="F39">
+        <v>0.02183939355490654</v>
+      </c>
+      <c r="G39">
+        <v>-0.02478366111542422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06465645816800986</v>
+        <v>0.07137067483528782</v>
       </c>
       <c r="C40">
-        <v>0.0566978820884842</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03433604018439504</v>
+      </c>
+      <c r="D40">
+        <v>0.01153563824085439</v>
+      </c>
+      <c r="E40">
+        <v>-0.02780742106320168</v>
+      </c>
+      <c r="F40">
+        <v>-0.0491626894648911</v>
+      </c>
+      <c r="G40">
+        <v>-0.06019841177464456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0391334266836468</v>
+        <v>0.04366887663543123</v>
       </c>
       <c r="C41">
-        <v>0.01676124244941177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006347582486582274</v>
+      </c>
+      <c r="D41">
+        <v>0.0408039301042792</v>
+      </c>
+      <c r="E41">
+        <v>-0.006320070535057287</v>
+      </c>
+      <c r="F41">
+        <v>-0.007139642055319026</v>
+      </c>
+      <c r="G41">
+        <v>-0.01133039334049537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04319218108201164</v>
+        <v>0.05265875803108783</v>
       </c>
       <c r="C43">
-        <v>0.0355110426544001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02093166379518702</v>
+      </c>
+      <c r="D43">
+        <v>0.02944340114983757</v>
+      </c>
+      <c r="E43">
+        <v>-0.01697966091832349</v>
+      </c>
+      <c r="F43">
+        <v>0.01377320502518742</v>
+      </c>
+      <c r="G43">
+        <v>0.008437709067462473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0904702013169278</v>
+        <v>0.09324972475034372</v>
       </c>
       <c r="C44">
-        <v>0.09677163607518244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06057420839939735</v>
+      </c>
+      <c r="D44">
+        <v>0.05521964673076919</v>
+      </c>
+      <c r="E44">
+        <v>-0.1039675823903824</v>
+      </c>
+      <c r="F44">
+        <v>0.06595121931170682</v>
+      </c>
+      <c r="G44">
+        <v>-0.0246944591092658</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02624147774342781</v>
+        <v>0.02794868948808446</v>
       </c>
       <c r="C46">
-        <v>0.01819772972245408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.0093800400938768</v>
+      </c>
+      <c r="D46">
+        <v>0.03388461616172381</v>
+      </c>
+      <c r="E46">
+        <v>-0.01675418495636126</v>
+      </c>
+      <c r="F46">
+        <v>0.01806966204124568</v>
+      </c>
+      <c r="G46">
+        <v>-0.001560056876715834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02678801649984283</v>
+        <v>0.03022076733550426</v>
       </c>
       <c r="C47">
-        <v>0.02120286096877206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01333227134419153</v>
+      </c>
+      <c r="D47">
+        <v>0.01620502097810029</v>
+      </c>
+      <c r="E47">
+        <v>-0.04926180724014281</v>
+      </c>
+      <c r="F47">
+        <v>0.0136008694942166</v>
+      </c>
+      <c r="G47">
+        <v>0.02962799802756913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02809780059787865</v>
+        <v>0.03257004255529598</v>
       </c>
       <c r="C48">
-        <v>0.02014400497127559</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01126833991460191</v>
+      </c>
+      <c r="D48">
+        <v>0.03247377482272877</v>
+      </c>
+      <c r="E48">
+        <v>-0.04120608367376168</v>
+      </c>
+      <c r="F48">
+        <v>0.01690770310444852</v>
+      </c>
+      <c r="G48">
+        <v>-0.0001325727698785433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1491786999560647</v>
+        <v>0.1776479693332823</v>
       </c>
       <c r="C49">
-        <v>0.09220575127350344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05132453200131405</v>
+      </c>
+      <c r="D49">
+        <v>0.01341042282360073</v>
+      </c>
+      <c r="E49">
+        <v>0.1334924000085654</v>
+      </c>
+      <c r="F49">
+        <v>0.02402561227284234</v>
+      </c>
+      <c r="G49">
+        <v>0.05631477616191514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03320141826755197</v>
+        <v>0.04226970344565788</v>
       </c>
       <c r="C50">
-        <v>0.02754812729292681</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.02027361520701748</v>
+      </c>
+      <c r="D50">
+        <v>0.0363571549870415</v>
+      </c>
+      <c r="E50">
+        <v>-0.04476061806058881</v>
+      </c>
+      <c r="F50">
+        <v>0.02408419205627156</v>
+      </c>
+      <c r="G50">
+        <v>0.02273537559531697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02468694519395478</v>
+        <v>0.02758533429420028</v>
       </c>
       <c r="C51">
-        <v>0.01414032289495259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.007387502101111172</v>
+      </c>
+      <c r="D51">
+        <v>0.02760191909623523</v>
+      </c>
+      <c r="E51">
+        <v>-0.01617321785305414</v>
+      </c>
+      <c r="F51">
+        <v>0.008911843065176391</v>
+      </c>
+      <c r="G51">
+        <v>-0.0060159582836648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1371286618954891</v>
+        <v>0.1584502596521986</v>
       </c>
       <c r="C53">
-        <v>0.1008587591664575</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06495980703143124</v>
+      </c>
+      <c r="D53">
+        <v>0.02208246115348617</v>
+      </c>
+      <c r="E53">
+        <v>0.04052545416173817</v>
+      </c>
+      <c r="F53">
+        <v>0.01742740776205965</v>
+      </c>
+      <c r="G53">
+        <v>-0.003859201779026337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05144869889279451</v>
+        <v>0.05502584680643137</v>
       </c>
       <c r="C54">
-        <v>0.02884531688754958</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01145162304659523</v>
+      </c>
+      <c r="D54">
+        <v>0.03499699583428512</v>
+      </c>
+      <c r="E54">
+        <v>-0.04387776120326826</v>
+      </c>
+      <c r="F54">
+        <v>0.0135136639626826</v>
+      </c>
+      <c r="G54">
+        <v>-0.002759362937070958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09116280352419849</v>
+        <v>0.09963402316197412</v>
       </c>
       <c r="C55">
-        <v>0.06574267760086876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04051212336397934</v>
+      </c>
+      <c r="D55">
+        <v>0.03220421219549523</v>
+      </c>
+      <c r="E55">
+        <v>-0.006525630098934865</v>
+      </c>
+      <c r="F55">
+        <v>0.01904929901404628</v>
+      </c>
+      <c r="G55">
+        <v>-0.008475337142173417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1358745140361304</v>
+        <v>0.157710439718098</v>
       </c>
       <c r="C56">
-        <v>0.1111656993391952</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07335879790445135</v>
+      </c>
+      <c r="D56">
+        <v>0.01903787488717227</v>
+      </c>
+      <c r="E56">
+        <v>0.04038506273881082</v>
+      </c>
+      <c r="F56">
+        <v>0.04909115997025307</v>
+      </c>
+      <c r="G56">
+        <v>0.01173207549185777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1133752161016906</v>
+        <v>0.102119462989311</v>
       </c>
       <c r="C58">
-        <v>0.0297886841555163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.009443083433026049</v>
+      </c>
+      <c r="D58">
+        <v>0.05414310455300334</v>
+      </c>
+      <c r="E58">
+        <v>-0.1842646868883979</v>
+      </c>
+      <c r="F58">
+        <v>0.03585777588458023</v>
+      </c>
+      <c r="G58">
+        <v>0.04430518033579293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1048938603410343</v>
+        <v>0.1465215403580541</v>
       </c>
       <c r="C59">
-        <v>0.08671723019397801</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08599078388470487</v>
+      </c>
+      <c r="D59">
+        <v>-0.352572446000435</v>
+      </c>
+      <c r="E59">
+        <v>-0.04626336307782282</v>
+      </c>
+      <c r="F59">
+        <v>-0.02450792141314132</v>
+      </c>
+      <c r="G59">
+        <v>0.03007779444796622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1833755230166834</v>
+        <v>0.2182252973040054</v>
       </c>
       <c r="C60">
-        <v>0.1212770000037085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07674678945572191</v>
+      </c>
+      <c r="D60">
+        <v>0.01546771358257714</v>
+      </c>
+      <c r="E60">
+        <v>0.07179350765251495</v>
+      </c>
+      <c r="F60">
+        <v>0.04119504017332608</v>
+      </c>
+      <c r="G60">
+        <v>-0.02460458807122226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07488287681685794</v>
+        <v>0.08653505164685955</v>
       </c>
       <c r="C61">
-        <v>0.06371248225699262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03972711425584784</v>
+      </c>
+      <c r="D61">
+        <v>0.06510144296129375</v>
+      </c>
+      <c r="E61">
+        <v>0.01819773630357446</v>
+      </c>
+      <c r="F61">
+        <v>0.0092576165949273</v>
+      </c>
+      <c r="G61">
+        <v>0.01533971419703299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1161989182213139</v>
+        <v>0.138646421789064</v>
       </c>
       <c r="C62">
-        <v>0.08512884180581452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05515959207953516</v>
+      </c>
+      <c r="D62">
+        <v>0.02375266601615536</v>
+      </c>
+      <c r="E62">
+        <v>0.0551595949771068</v>
+      </c>
+      <c r="F62">
+        <v>0.01963738099123727</v>
+      </c>
+      <c r="G62">
+        <v>-0.03227512440241834</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.05039485930950985</v>
+        <v>0.05181383221881096</v>
       </c>
       <c r="C63">
-        <v>0.0321693597491178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01596730476508607</v>
+      </c>
+      <c r="D63">
+        <v>0.03202648651325619</v>
+      </c>
+      <c r="E63">
+        <v>-0.04778576955943199</v>
+      </c>
+      <c r="F63">
+        <v>0.009147264383409086</v>
+      </c>
+      <c r="G63">
+        <v>-0.02621442049864633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1076485777521529</v>
+        <v>0.1133303970252362</v>
       </c>
       <c r="C64">
-        <v>0.04686718466038689</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01455923165373012</v>
+      </c>
+      <c r="D64">
+        <v>0.04544477050547452</v>
+      </c>
+      <c r="E64">
+        <v>-0.02950694227479374</v>
+      </c>
+      <c r="F64">
+        <v>0.05720614687395723</v>
+      </c>
+      <c r="G64">
+        <v>-0.02552693701646689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1093676493238198</v>
+        <v>0.1243625993943154</v>
       </c>
       <c r="C65">
-        <v>0.06893890906775417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04038935952803625</v>
+      </c>
+      <c r="D65">
+        <v>0.008470637502002894</v>
+      </c>
+      <c r="E65">
+        <v>-0.002467684123029319</v>
+      </c>
+      <c r="F65">
+        <v>0.06341298646591001</v>
+      </c>
+      <c r="G65">
+        <v>-0.02465757004455528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1334745063618998</v>
+        <v>0.1530104580444176</v>
       </c>
       <c r="C66">
-        <v>0.09703953971338858</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05474451606289166</v>
+      </c>
+      <c r="D66">
+        <v>0.1182622334505078</v>
+      </c>
+      <c r="E66">
+        <v>0.05518628940301208</v>
+      </c>
+      <c r="F66">
+        <v>0.04530155492418702</v>
+      </c>
+      <c r="G66">
+        <v>-0.02620254503360681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06960916379269491</v>
+        <v>0.0752154434684979</v>
       </c>
       <c r="C67">
-        <v>0.02396822981668429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.006832908275658895</v>
+      </c>
+      <c r="D67">
+        <v>0.02494326031912359</v>
+      </c>
+      <c r="E67">
+        <v>-0.02514922670447186</v>
+      </c>
+      <c r="F67">
+        <v>-0.00146979094524306</v>
+      </c>
+      <c r="G67">
+        <v>0.004921623555321586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.0511184668643888</v>
+        <v>0.06676223566317384</v>
       </c>
       <c r="C68">
-        <v>0.04810408600489657</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.0497336498951251</v>
+      </c>
+      <c r="D68">
+        <v>-0.266792140451875</v>
+      </c>
+      <c r="E68">
+        <v>-0.04992862591579952</v>
+      </c>
+      <c r="F68">
+        <v>0.006169295123055923</v>
+      </c>
+      <c r="G68">
+        <v>0.008643744554458745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04916024652262967</v>
+        <v>0.05103814498315816</v>
       </c>
       <c r="C69">
-        <v>0.02595468068084501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.009512922928235116</v>
+      </c>
+      <c r="D69">
+        <v>0.03425484398999107</v>
+      </c>
+      <c r="E69">
+        <v>-0.02057459072923964</v>
+      </c>
+      <c r="F69">
+        <v>-0.001393874471997788</v>
+      </c>
+      <c r="G69">
+        <v>0.008107509489012666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004812252571182301</v>
+        <v>0.01652971000461294</v>
       </c>
       <c r="C70">
-        <v>-0.002757383968563191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0003825883029180527</v>
+      </c>
+      <c r="D70">
+        <v>-0.006548954927356152</v>
+      </c>
+      <c r="E70">
+        <v>0.02165530733144387</v>
+      </c>
+      <c r="F70">
+        <v>0.01546243663356749</v>
+      </c>
+      <c r="G70">
+        <v>0.01706899642830489</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05505357549268348</v>
+        <v>0.07147379065175218</v>
       </c>
       <c r="C71">
-        <v>0.04726993950916648</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04924163138912018</v>
+      </c>
+      <c r="D71">
+        <v>-0.2994602958669696</v>
+      </c>
+      <c r="E71">
+        <v>-0.04845989926747001</v>
+      </c>
+      <c r="F71">
+        <v>0.02916522637950581</v>
+      </c>
+      <c r="G71">
+        <v>0.005925798813259012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1309879525018904</v>
+        <v>0.1540823036569626</v>
       </c>
       <c r="C72">
-        <v>0.07921418744925686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.04509063415732471</v>
+      </c>
+      <c r="D72">
+        <v>0.008330071321661433</v>
+      </c>
+      <c r="E72">
+        <v>0.09158915147679719</v>
+      </c>
+      <c r="F72">
+        <v>-0.1573820897171306</v>
+      </c>
+      <c r="G72">
+        <v>-0.1223319729454884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2430757069875168</v>
+        <v>0.2741436220136669</v>
       </c>
       <c r="C73">
-        <v>0.1443233352286329</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07576821761243409</v>
+      </c>
+      <c r="D73">
+        <v>0.07114190128603499</v>
+      </c>
+      <c r="E73">
+        <v>0.1928754330698161</v>
+      </c>
+      <c r="F73">
+        <v>0.07381633340293174</v>
+      </c>
+      <c r="G73">
+        <v>0.1991424570078796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07267657046141242</v>
+        <v>0.08972776262946278</v>
       </c>
       <c r="C74">
-        <v>0.08531342506039698</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06356406203469006</v>
+      </c>
+      <c r="D74">
+        <v>0.03557188809991839</v>
+      </c>
+      <c r="E74">
+        <v>0.006627540427448941</v>
+      </c>
+      <c r="F74">
+        <v>-0.008854766972693814</v>
+      </c>
+      <c r="G74">
+        <v>0.02582698213563255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09466231131884499</v>
+        <v>0.1047740778758099</v>
       </c>
       <c r="C75">
-        <v>0.06739103534377149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03498929489811509</v>
+      </c>
+      <c r="D75">
+        <v>0.0146811335898664</v>
+      </c>
+      <c r="E75">
+        <v>-0.001813446695325015</v>
+      </c>
+      <c r="F75">
+        <v>0.05614572490924924</v>
+      </c>
+      <c r="G75">
+        <v>0.01314216885557159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1148403135186674</v>
+        <v>0.1331382516914859</v>
       </c>
       <c r="C76">
-        <v>0.1004401103815322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06676426574607085</v>
+      </c>
+      <c r="D76">
+        <v>0.05766968731677776</v>
+      </c>
+      <c r="E76">
+        <v>-0.009362505193210389</v>
+      </c>
+      <c r="F76">
+        <v>0.06292666448533557</v>
+      </c>
+      <c r="G76">
+        <v>-0.005728167216790778</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1131263383749255</v>
+        <v>0.1155765887338946</v>
       </c>
       <c r="C77">
-        <v>0.06406164360063375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.02443905977517185</v>
+      </c>
+      <c r="D77">
+        <v>0.01560112806754319</v>
+      </c>
+      <c r="E77">
+        <v>-0.02060558655161441</v>
+      </c>
+      <c r="F77">
+        <v>0.237554751619468</v>
+      </c>
+      <c r="G77">
+        <v>-0.8722988246961519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08564168962347986</v>
+        <v>0.1067325591254649</v>
       </c>
       <c r="C78">
-        <v>0.05149797777493306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03008419146322802</v>
+      </c>
+      <c r="D78">
+        <v>0.06855197599241307</v>
+      </c>
+      <c r="E78">
+        <v>-0.0613064315952963</v>
+      </c>
+      <c r="F78">
+        <v>0.005291685240865616</v>
+      </c>
+      <c r="G78">
+        <v>-0.02683612141347315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1330869491825507</v>
+        <v>0.1505440431016727</v>
       </c>
       <c r="C79">
-        <v>0.1055186112688206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.0630573909689586</v>
+      </c>
+      <c r="D79">
+        <v>0.02816175841010364</v>
+      </c>
+      <c r="E79">
+        <v>0.0250576436950693</v>
+      </c>
+      <c r="F79">
+        <v>0.03211544387566836</v>
+      </c>
+      <c r="G79">
+        <v>0.01376645383336121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0394584790384972</v>
+        <v>0.03808871732344806</v>
       </c>
       <c r="C80">
-        <v>0.02037503610624691</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006977747428120498</v>
+      </c>
+      <c r="D80">
+        <v>0.02766524846584865</v>
+      </c>
+      <c r="E80">
+        <v>0.004822314419864677</v>
+      </c>
+      <c r="F80">
+        <v>-0.02316864059113617</v>
+      </c>
+      <c r="G80">
+        <v>0.03330571436944861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1076826862395046</v>
+        <v>0.1203964597836657</v>
       </c>
       <c r="C81">
-        <v>0.08027972859870515</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0467621140738802</v>
+      </c>
+      <c r="D81">
+        <v>0.031844742079634</v>
+      </c>
+      <c r="E81">
+        <v>0.007667985318511233</v>
+      </c>
+      <c r="F81">
+        <v>0.03119937002674911</v>
+      </c>
+      <c r="G81">
+        <v>0.05378068333308145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1157243125236866</v>
+        <v>0.1274171909522212</v>
       </c>
       <c r="C82">
-        <v>0.09306058059620757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05736727389453946</v>
+      </c>
+      <c r="D82">
+        <v>0.03582179556334685</v>
+      </c>
+      <c r="E82">
+        <v>0.02578695571937768</v>
+      </c>
+      <c r="F82">
+        <v>0.05457154709319243</v>
+      </c>
+      <c r="G82">
+        <v>0.0377867266447185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07308978179145964</v>
+        <v>0.07503809410103152</v>
       </c>
       <c r="C83">
-        <v>0.02313343845592152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.002138917253026273</v>
+      </c>
+      <c r="D83">
+        <v>0.04437388100175184</v>
+      </c>
+      <c r="E83">
+        <v>-0.009016386790409722</v>
+      </c>
+      <c r="F83">
+        <v>0.01113258498812136</v>
+      </c>
+      <c r="G83">
+        <v>0.0785501625262245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02324108136947622</v>
+        <v>0.03293451687484044</v>
       </c>
       <c r="C84">
-        <v>0.02106505684732921</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01745137849508076</v>
+      </c>
+      <c r="D84">
+        <v>0.02426527833723658</v>
+      </c>
+      <c r="E84">
+        <v>-0.01473657049293614</v>
+      </c>
+      <c r="F84">
+        <v>-0.04734757999446836</v>
+      </c>
+      <c r="G84">
+        <v>0.05923938100978977</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1132166561403756</v>
+        <v>0.1182730527762584</v>
       </c>
       <c r="C85">
-        <v>0.07934999922584676</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0405965838039757</v>
+      </c>
+      <c r="D85">
+        <v>0.03231626373623511</v>
+      </c>
+      <c r="E85">
+        <v>-0.00605704224992095</v>
+      </c>
+      <c r="F85">
+        <v>0.07756854407348658</v>
+      </c>
+      <c r="G85">
+        <v>0.01270289970425561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04395400607193909</v>
+        <v>0.04733137432688982</v>
       </c>
       <c r="C86">
-        <v>0.02195613204170452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.008361944799937494</v>
+      </c>
+      <c r="D86">
+        <v>0.01552626393306812</v>
+      </c>
+      <c r="E86">
+        <v>-0.04832172161056548</v>
+      </c>
+      <c r="F86">
+        <v>0.0115820799091922</v>
+      </c>
+      <c r="G86">
+        <v>0.02391271817201946</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1155638628633137</v>
+        <v>0.1227068629869529</v>
       </c>
       <c r="C87">
-        <v>0.08668256529161995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04441069039327333</v>
+      </c>
+      <c r="D87">
+        <v>0.07096049263992427</v>
+      </c>
+      <c r="E87">
+        <v>-0.0225910326856948</v>
+      </c>
+      <c r="F87">
+        <v>0.03518822894359651</v>
+      </c>
+      <c r="G87">
+        <v>-0.1072365905674286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0529007725463756</v>
+        <v>0.05925232893480253</v>
       </c>
       <c r="C88">
-        <v>0.04143353824339922</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.02450221410496504</v>
+      </c>
+      <c r="D88">
+        <v>0.02513162868877915</v>
+      </c>
+      <c r="E88">
+        <v>-0.02213405293339779</v>
+      </c>
+      <c r="F88">
+        <v>0.01046878440679275</v>
+      </c>
+      <c r="G88">
+        <v>-0.0151104934853155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07368478159837508</v>
+        <v>0.1054847405449086</v>
       </c>
       <c r="C89">
-        <v>0.07453961745871795</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07787971218430974</v>
+      </c>
+      <c r="D89">
+        <v>-0.3301908288755192</v>
+      </c>
+      <c r="E89">
+        <v>-0.08112466585428706</v>
+      </c>
+      <c r="F89">
+        <v>0.057599625160864</v>
+      </c>
+      <c r="G89">
+        <v>0.02105049555950115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06489440851816516</v>
+        <v>0.08646452153106286</v>
       </c>
       <c r="C90">
-        <v>0.06483913452723608</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06361189739516895</v>
+      </c>
+      <c r="D90">
+        <v>-0.3080550588547905</v>
+      </c>
+      <c r="E90">
+        <v>-0.06425606205227302</v>
+      </c>
+      <c r="F90">
+        <v>-0.01984485542486034</v>
+      </c>
+      <c r="G90">
+        <v>0.01465589065693654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07566310492205716</v>
+        <v>0.08767159932224741</v>
       </c>
       <c r="C91">
-        <v>0.06733161180617613</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04385830735850814</v>
+      </c>
+      <c r="D91">
+        <v>0.02865954005236158</v>
+      </c>
+      <c r="E91">
+        <v>-0.01043038325270982</v>
+      </c>
+      <c r="F91">
+        <v>0.008810734573811154</v>
+      </c>
+      <c r="G91">
+        <v>0.0326588934644448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0789002307300682</v>
+        <v>0.102316991632051</v>
       </c>
       <c r="C92">
-        <v>0.07306740014349951</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06908342509255432</v>
+      </c>
+      <c r="D92">
+        <v>-0.3320392298807887</v>
+      </c>
+      <c r="E92">
+        <v>-0.04695522934580899</v>
+      </c>
+      <c r="F92">
+        <v>0.02020987276767308</v>
+      </c>
+      <c r="G92">
+        <v>0.005105157728762123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05869391989169181</v>
+        <v>0.08407885613302879</v>
       </c>
       <c r="C93">
-        <v>0.06119308226860992</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06542865742171668</v>
+      </c>
+      <c r="D93">
+        <v>-0.3019265725120387</v>
+      </c>
+      <c r="E93">
+        <v>-0.03800948812013068</v>
+      </c>
+      <c r="F93">
+        <v>0.0325960422708041</v>
+      </c>
+      <c r="G93">
+        <v>-0.002112180749370559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1240997776871792</v>
+        <v>0.1279393944141362</v>
       </c>
       <c r="C94">
-        <v>0.08011836351829796</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03508216289329257</v>
+      </c>
+      <c r="D94">
+        <v>0.05610492183699773</v>
+      </c>
+      <c r="E94">
+        <v>0.02299243192607514</v>
+      </c>
+      <c r="F94">
+        <v>0.03689224858263718</v>
+      </c>
+      <c r="G94">
+        <v>0.03490118501152415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1121549577723587</v>
+        <v>0.119828694859223</v>
       </c>
       <c r="C95">
-        <v>0.05975872324422821</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02285918687249804</v>
+      </c>
+      <c r="D95">
+        <v>0.05677808487036081</v>
+      </c>
+      <c r="E95">
+        <v>0.01046298835880887</v>
+      </c>
+      <c r="F95">
+        <v>0.03095789191179691</v>
+      </c>
+      <c r="G95">
+        <v>0.007474760640635926</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1972212813965463</v>
+        <v>0.2202731061063144</v>
       </c>
       <c r="C97">
-        <v>0.07189244286369305</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.02858155538326494</v>
+      </c>
+      <c r="D97">
+        <v>-0.01022547984963853</v>
+      </c>
+      <c r="E97">
+        <v>0.1749617353110173</v>
+      </c>
+      <c r="F97">
+        <v>-0.8880553619433014</v>
+      </c>
+      <c r="G97">
+        <v>-0.192755763769944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2332220220267151</v>
+        <v>0.264803845339065</v>
       </c>
       <c r="C98">
-        <v>0.1264193722699089</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.05992870159422149</v>
+      </c>
+      <c r="D98">
+        <v>0.04930731862148703</v>
+      </c>
+      <c r="E98">
+        <v>0.1635430937237914</v>
+      </c>
+      <c r="F98">
+        <v>0.03995605578814938</v>
+      </c>
+      <c r="G98">
+        <v>0.2868223327061112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5691280769243957</v>
+        <v>0.3448237862749376</v>
       </c>
       <c r="C99">
-        <v>-0.8117347474363631</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9260429662300771</v>
+      </c>
+      <c r="D99">
+        <v>-0.08395593146944162</v>
+      </c>
+      <c r="E99">
+        <v>-0.04648347859307179</v>
+      </c>
+      <c r="F99">
+        <v>0.0407321007142468</v>
+      </c>
+      <c r="G99">
+        <v>0.01140388511032099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03549601500984765</v>
+        <v>0.04422161797833857</v>
       </c>
       <c r="C101">
-        <v>0.03191748314392275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02391710238621461</v>
+      </c>
+      <c r="D101">
+        <v>0.01085517504818882</v>
+      </c>
+      <c r="E101">
+        <v>-0.0370102859926752</v>
+      </c>
+      <c r="F101">
+        <v>0.01028914106230768</v>
+      </c>
+      <c r="G101">
+        <v>0.01814732977378651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
